--- a/Data/CaLSeN_2022.xlsx
+++ b/Data/CaLSeN_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Queer\RStudio\TickEcology\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEAA24BD-7B2A-4846-B7BF-306B3FD684B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806E27F2-AE92-4CCD-ADA0-CA6FF6B91BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SiteSpecies" sheetId="13" r:id="rId1"/>
@@ -1064,9 +1064,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -1170,7 +1171,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1244,6 +1245,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1613,9 +1623,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1625,8 +1635,8 @@
     <col min="4" max="4" width="11.453125" style="13"/>
     <col min="5" max="5" width="12.81640625" style="13" customWidth="1"/>
     <col min="6" max="6" width="13" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.453125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="16" style="9" customWidth="1"/>
+    <col min="7" max="7" width="15.453125" style="36" customWidth="1"/>
+    <col min="8" max="8" width="16" style="36" customWidth="1"/>
     <col min="9" max="9" width="12.26953125" style="16" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.26953125" style="16" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.26953125" style="16" bestFit="1" customWidth="1"/>
@@ -1654,13 +1664,13 @@
       <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="35" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="30" t="s">
@@ -1732,10 +1742,10 @@
       <c r="F2" s="8">
         <v>44722</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="36">
         <v>0.48958333333333331</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="36">
         <v>0.64583333333333337</v>
       </c>
       <c r="I2" s="16">
@@ -1810,10 +1820,10 @@
       <c r="F3" s="8">
         <v>44721</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="36">
         <v>0.53819444444444442</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="36">
         <v>0.6875</v>
       </c>
       <c r="I3" s="16">
@@ -1885,10 +1895,10 @@
       <c r="F4" s="8">
         <v>44720</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="36">
         <v>0.5854166666666667</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="36">
         <v>0.72638888888888886</v>
       </c>
       <c r="I4" s="16">
@@ -1960,10 +1970,10 @@
       <c r="F5" s="8">
         <v>44714</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="36">
         <v>0.50902777777777775</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="36">
         <v>0.625</v>
       </c>
       <c r="I5" s="16">
@@ -2032,10 +2042,10 @@
       <c r="F6" s="8">
         <v>44725</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="36">
         <v>0.46875</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="36">
         <v>0.64444444444444449</v>
       </c>
       <c r="I6" s="16">
@@ -2110,10 +2120,10 @@
       <c r="F7" s="8">
         <v>44755</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="36">
         <v>0.39999999999999997</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="36">
         <v>0.52083333333333337</v>
       </c>
       <c r="I7" s="16">
@@ -2188,10 +2198,10 @@
       <c r="F8" s="8">
         <v>44755</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="36">
         <v>0.60416666666666663</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="36">
         <v>0.71944444444444444</v>
       </c>
       <c r="I8" s="16">
@@ -2266,10 +2276,10 @@
       <c r="F9" s="8">
         <v>44757</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="36">
         <v>0.40972222222222227</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="36">
         <v>0.54861111111111105</v>
       </c>
       <c r="I9" s="16">
@@ -2342,10 +2352,10 @@
       <c r="F10" s="8">
         <v>44756</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="36">
         <v>0.41666666666666669</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="36">
         <v>0.54791666666666672</v>
       </c>
       <c r="I10" s="16">
@@ -2420,10 +2430,10 @@
       <c r="F11" s="8">
         <v>44756</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="36">
         <v>0.65972222222222221</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="36">
         <v>0.76180555555555562</v>
       </c>
       <c r="I11" s="16">
@@ -2498,10 +2508,10 @@
       <c r="F12" s="8">
         <v>44764</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="36">
         <v>0.60416666666666663</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="36">
         <v>0.69444444444444453</v>
       </c>
       <c r="I12" s="16">
@@ -2573,10 +2583,10 @@
       <c r="F13" s="8">
         <v>44764</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="36">
         <v>0.41666666666666669</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="36">
         <v>0.53819444444444442</v>
       </c>
       <c r="I13" s="16">
@@ -2642,12 +2652,12 @@
       <c r="D14" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>81</v>
+      <c r="E14" s="1">
+        <v>2022</v>
       </c>
       <c r="F14" s="8"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
       <c r="I14" s="16" t="s">
         <v>82</v>
       </c>
@@ -2691,6 +2701,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="X14" s="13" t="s">
+        <v>81</v>
+      </c>
       <c r="Y14"/>
       <c r="Z14"/>
     </row>
@@ -2713,10 +2726,10 @@
       <c r="F15" s="8">
         <v>44763</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="36">
         <v>0.57847222222222217</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="36">
         <v>0.71180555555555547</v>
       </c>
       <c r="I15" s="16">
@@ -2791,10 +2804,10 @@
       <c r="F16" s="8">
         <v>44765</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="36">
         <v>0.375</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="36">
         <v>0.48680555555555555</v>
       </c>
       <c r="I16" s="16">
@@ -2867,10 +2880,10 @@
       <c r="F17" s="8">
         <v>44726</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="36">
         <v>0.45</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="36">
         <v>0.59722222222222221</v>
       </c>
       <c r="I17" s="16">
@@ -2943,10 +2956,10 @@
       <c r="F18" s="8">
         <v>44726</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="36">
         <v>0.68055555555555547</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="36">
         <v>0.80555555555555547</v>
       </c>
       <c r="I18" s="16">
@@ -3021,10 +3034,10 @@
       <c r="F19" s="8">
         <v>44728</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="36">
         <v>0.42430555555555555</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="36">
         <v>0.56944444444444442</v>
       </c>
       <c r="I19" s="16">
@@ -3099,10 +3112,10 @@
       <c r="F20" s="8">
         <v>44727</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="36">
         <v>0.39583333333333331</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="36">
         <v>0.56458333333333333</v>
       </c>
       <c r="I20" s="16">
@@ -3177,10 +3190,10 @@
       <c r="F21" s="8">
         <v>44736</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="36">
         <v>0.6972222222222223</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="36">
         <v>0.82638888888888884</v>
       </c>
       <c r="I21" s="16">
@@ -3255,10 +3268,10 @@
       <c r="F22" s="8">
         <v>44749</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="36">
         <v>0.42986111111111108</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="36">
         <v>0.53888888888888886</v>
       </c>
       <c r="I22" s="16">
@@ -3331,10 +3344,10 @@
       <c r="F23" s="8">
         <v>44739</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="36">
         <v>0.62847222222222221</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="36">
         <v>0.72499999999999998</v>
       </c>
       <c r="I23" s="16">
@@ -3409,10 +3422,10 @@
       <c r="F24" s="8">
         <v>44748</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="36">
         <v>0.70486111111111116</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="36">
         <v>0.82291666666666663</v>
       </c>
       <c r="I24" s="16">
@@ -3481,8 +3494,8 @@
       <c r="D25" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="E25" s="13" t="s">
-        <v>112</v>
+      <c r="E25" s="13">
+        <v>2022</v>
       </c>
       <c r="I25" s="16" t="s">
         <v>82</v>
@@ -3527,7 +3540,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X25" s="1"/>
+      <c r="X25" s="13" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A26" s="13" t="s">
@@ -3548,10 +3563,10 @@
       <c r="F26" s="8">
         <v>44748</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="36">
         <v>0.47569444444444442</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="36">
         <v>0.62361111111111112</v>
       </c>
       <c r="I26" s="16">
@@ -10498,7 +10513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{532BC2D3-213F-4870-ADC2-3AEAFC63B7F2}">
   <dimension ref="A1:S253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B108" workbookViewId="0">
       <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
